--- a/Accuracy_Measurments_Book1.xlsx
+++ b/Accuracy_Measurments_Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\AI_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31239B21-A752-40A1-8589-27D000952C92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81178F7A-241C-46D5-8ACC-28A3E25A2E87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{DD839B27-AF45-4F74-AAFC-DC8645671D3A}"/>
   </bookViews>
